--- a/biology/Médecine/Artère_méningée_moyenne/Artère_méningée_moyenne.xlsx
+++ b/biology/Médecine/Artère_méningée_moyenne/Artère_méningée_moyenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_m%C3%A9ning%C3%A9e_moyenne</t>
+          <t>Artère_méningée_moyenne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère méningée moyenne est une branche de l'artère maxillaire. Elle permet la vascularisation d'une grande partie de la dure-mère et de la voûte crânienne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_m%C3%A9ning%C3%A9e_moyenne</t>
+          <t>Artère_méningée_moyenne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,124 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Elle prend son origine dans le premier segment de l'artère maxillaire provenant elle-même du système carotidien externe[1].
-Trajet
-Elle remonte dans le foramen épineux de l'os sphénoïde entrant ainsi dans l'étage cérébral moyen, croisant le nerf auriculo-temporal. Elle s'incurve ensuite en avant sur l'aile supérieure du sphénoïde. Arrivée au niveau de la voûte du crâne, elle remonte le long de la face latérale des méninges[2].  
-Collatérales
-Elle ne donne, à proprement parler, aucune collatérale, puisque ce sont ses branches qui assurent véritablement la vascularisation.
-Terminaison
-Elle se divise rapidement en 4 branches :
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle prend son origine dans le premier segment de l'artère maxillaire provenant elle-même du système carotidien externe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Artère_méningée_moyenne</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art%C3%A8re_m%C3%A9ning%C3%A9e_moyenne</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description anatomique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle remonte dans le foramen épineux de l'os sphénoïde entrant ainsi dans l'étage cérébral moyen, croisant le nerf auriculo-temporal. Elle s'incurve ensuite en avant sur l'aile supérieure du sphénoïde. Arrivée au niveau de la voûte du crâne, elle remonte le long de la face latérale des méninges.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Artère_méningée_moyenne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art%C3%A8re_m%C3%A9ning%C3%A9e_moyenne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description anatomique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Collatérales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle ne donne, à proprement parler, aucune collatérale, puisque ce sont ses branches qui assurent véritablement la vascularisation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Artère_méningée_moyenne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Art%C3%A8re_m%C3%A9ning%C3%A9e_moyenne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description anatomique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se divise rapidement en 4 branches :
 un rameau pariétal (ou postérieur) de l'artère méningée moyenne ;
 un rameau frontal (ou antérieur) de l'artère méningée moyenne ;
 un rameau orbitaire de l'artère méningée moyenne ;
@@ -530,64 +652,68 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Art%C3%A8re_m%C3%A9ning%C3%A9e_moyenne</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Artère_méningée_moyenne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Art%C3%A8re_m%C3%A9ning%C3%A9e_moyenne</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les rameaux vascularisent les os du crâne et une grande partie de la dure-mère.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Art%C3%A8re_m%C3%A9ning%C3%A9e_moyenne</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Artère_méningée_moyenne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Art%C3%A8re_m%C3%A9ning%C3%A9e_moyenne</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette artère pourrait être impliquée dans les migraines et les méningiomes[3]. Les anévrismes (et pseudo-anévrismes) de l'artère méningée moyenne pourraient donc être traités par embolisation[3]. L'embolisation de cette artère aurait aussi un meilleur effet sur l'hématome sous-dural chronique que le traitement conventionnel[4]. Cependant des études plus robustes sont encore nécessaires pour affirmer cette option thérapeutique[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette artère pourrait être impliquée dans les migraines et les méningiomes. Les anévrismes (et pseudo-anévrismes) de l'artère méningée moyenne pourraient donc être traités par embolisation. L'embolisation de cette artère aurait aussi un meilleur effet sur l'hématome sous-dural chronique que le traitement conventionnel. Cependant des études plus robustes sont encore nécessaires pour affirmer cette option thérapeutique.
 </t>
         </is>
       </c>
